--- a/biology/Zoologie/Chribellphorura_allanae/Chribellphorura_allanae.xlsx
+++ b/biology/Zoologie/Chribellphorura_allanae/Chribellphorura_allanae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chribellphorura allanae, unique représentant du genre Chribellphorura, est une espèce de collemboles de la famille des Onychiuridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chribellphorura allanae, unique représentant du genre Chribellphorura, est une espèce de collemboles de la famille des Onychiuridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en zone néarctique.
 </t>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Kenneth A. Christiansen et Peter F. Bellinger[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Kenneth A. Christiansen et Peter F. Bellinger.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Christiansen &amp; Bellinger, 1980 : The Collembola of North America, North of the Rio Grande: A Taxonomic Analysis. Grinnell College, Grinnell, Iowa, p. 1-1322.
 Weiner, 1996 : Generic revision of Onychiurinae (Collembola: Onychiuridae) with a cladistic analysis. Annales de la Société Entomologique de France, vol. 32, no 2, p. 163-200.</t>
